--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_30_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_30_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>146279.7529849757</v>
+        <v>25288275.86771015</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>146279.7529849757</v>
+        <v>25288275.86771015</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4176.666050343632</v>
+        <v>373046.8501024663</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4176.666050343632</v>
+        <v>373046.8501024663</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1034800591.870176</v>
+        <v>41429200.86663286</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>7389.049321038134</v>
+        <v>850238.6389696189</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14757.57272752747</v>
+        <v>1696392.620944027</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>22126.09613401681</v>
+        <v>2542546.602918435</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>29639.39207961923</v>
+        <v>3391058.473411849</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>37144.28802522168</v>
+        <v>4237898.743905263</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>44649.18397082411</v>
+        <v>5084739.014398674</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>52154.07991642656</v>
+        <v>5931579.284892082</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>59657.23216859063</v>
+        <v>6774589.237531358</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>67245.74298250521</v>
+        <v>7628318.835677679</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>74740.47236264996</v>
+        <v>8470596.665758656</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>82272.62440354463</v>
+        <v>9319531.69019315</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>89673.32940920231</v>
+        <v>10166657.18854824</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>97075.31510833288</v>
+        <v>11014037.54490444</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>104763.4727036507</v>
+        <v>11842900.87810772</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>112485.0621599211</v>
+        <v>12658554.44083508</v>
       </c>
     </row>
   </sheetData>
@@ -27040,22 +27040,22 @@
         <v>77</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>372</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
         <v>77</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,19 +27144,19 @@
         <v>198</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>57</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
